--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Zhang\AppData\Local\Programs\Python\Python36\_Projects\Stock-Tracker-Reporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6D4B9-1726-422E-948D-4A427CF2C321}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B152A-EEE6-4B87-93D7-9149450A6DC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" xr2:uid="{1F248035-B553-4C6C-9A93-BFD36DFB793C}"/>
   </bookViews>
@@ -60,18 +60,12 @@
     <t>select_template()</t>
   </si>
   <si>
-    <t>ranking_algorithm()</t>
-  </si>
-  <si>
     <t>populate_template()</t>
   </si>
   <si>
     <t>log_report()</t>
   </si>
   <si>
-    <t>place_report()</t>
-  </si>
-  <si>
     <t>create_report()</t>
   </si>
   <si>
@@ -81,10 +75,16 @@
     <t>load_report()</t>
   </si>
   <si>
-    <t>wait_time()</t>
-  </si>
-  <si>
-    <t>send()</t>
+    <t>wait_for_time()</t>
+  </si>
+  <si>
+    <t>issue_report()</t>
+  </si>
+  <si>
+    <t>store_report()</t>
+  </si>
+  <si>
+    <t>run_ranking_algorithm()</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF142EFC-AF7D-4B3A-9C06-4445019EAD43}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -458,21 +458,21 @@
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.26171875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.15625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.9453125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.47265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5234375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.05078125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="K1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -486,13 +486,13 @@
         <v>2</v>
       </c>
       <c r="AA2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="s">
         <v>17</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -509,16 +509,16 @@
         <v>10</v>
       </c>
       <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
         <v>11</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>12</v>
       </c>
-      <c r="U3" t="s">
-        <v>13</v>
-      </c>
       <c r="V3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Zhang\AppData\Local\Programs\Python\Python36\_Projects\Stock-Tracker-Reporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B152A-EEE6-4B87-93D7-9149450A6DC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F49875-5575-43C9-822D-FAA0D5A1C70F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" xr2:uid="{1F248035-B553-4C6C-9A93-BFD36DFB793C}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>gather_data_chunks()</t>
   </si>
   <si>
-    <t>format_report()</t>
-  </si>
-  <si>
     <t>save_report()</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>run_ranking_algorithm()</t>
+  </si>
+  <si>
+    <t>build_report()</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF142EFC-AF7D-4B3A-9C06-4445019EAD43}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -469,10 +469,10 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s">
         <v>13</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -480,83 +480,83 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
       <c r="AA2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>16</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>11</v>
       </c>
-      <c r="U3" t="s">
-        <v>12</v>
-      </c>
       <c r="V3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
       <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Zhang\AppData\Local\Programs\Python\Python36\_Projects\Stock-Tracker-Reporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F49875-5575-43C9-822D-FAA0D5A1C70F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87142AC1-1A4F-41AF-9891-AFC71032AB6C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" xr2:uid="{1F248035-B553-4C6C-9A93-BFD36DFB793C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>gather_data_chunks()</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>build_report()</t>
+  </si>
+  <si>
+    <t>grab_stocks()</t>
   </si>
 </sst>
 </file>
@@ -436,126 +439,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF142EFC-AF7D-4B3A-9C06-4445019EAD43}">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="B1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.9453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.05078125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.3671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.9453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.05078125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="K1" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="G2" t="s">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>18</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>10</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>11</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>5</v>
       </c>
     </row>
